--- a/data/trans_media/IQ3001_MoAR-Edad-trans_media.xlsx
+++ b/data/trans_media/IQ3001_MoAR-Edad-trans_media.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores según la edad en meses en la que empezaron a comer cereales sin gluten</t>
+          <t>Meses en la que empezaron a comer cereales sin gluten</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,34; 5,02</t>
+          <t>4,34; 5,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,86; 5,39</t>
+          <t>4,84; 5,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,13; 5,95</t>
+          <t>5,11; 5,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,26; 4,73</t>
+          <t>4,25; 4,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,93; 5,49</t>
+          <t>4,92; 5,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,33; 6,11</t>
+          <t>5,33; 6,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,36; 4,79</t>
+          <t>4,36; 4,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,97; 5,34</t>
+          <t>4,95; 5,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,31; 5,87</t>
+          <t>5,3; 5,87</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,34; 5,02</t>
+          <t>4,34; 5,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,86; 5,39</t>
+          <t>4,84; 5,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,13; 5,95</t>
+          <t>5,11; 5,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,26; 4,73</t>
+          <t>4,25; 4,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,93; 5,49</t>
+          <t>4,92; 5,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,33; 6,11</t>
+          <t>5,33; 6,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,36; 4,79</t>
+          <t>4,36; 4,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,97; 5,34</t>
+          <t>4,95; 5,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,31; 5,87</t>
+          <t>5,3; 5,87</t>
         </is>
       </c>
     </row>
